--- a/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8345CA-ED52-714B-8A05-1B2C9459F84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01325E-01A7-114E-B53E-607CF8B52AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Two Pointers" sheetId="2" r:id="rId1"/>
+    <sheet name="Sliding Window" sheetId="3" r:id="rId2"/>
+    <sheet name="Trees" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Trees!$A$1:$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t>No</t>
   </si>
@@ -532,11 +534,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4715199-24B6-5649-B03C-B91516D35629}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF6180-50F4-7B47-9FBB-1C05B6F05678}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF01325E-01A7-114E-B53E-607CF8B52AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F8FB4-7BC0-8A45-8DD5-AA89612912D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33580" windowHeight="21580" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
   </bookViews>
   <sheets>
     <sheet name="Two Pointers" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>No</t>
   </si>
@@ -151,12 +151,101 @@
 Time: O(n) → each node visited once (+ O(L) for reverse).
 Space: O(h) recursion stack (h = tree height) + O(n) for result.</t>
   </si>
+  <si>
+    <t>167. Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>Opposite Ends</t>
+  </si>
+  <si>
+    <t>876. Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>Fast–Slow</t>
+  </si>
+  <si>
+    <t>Two Pointers , Linked List</t>
+  </si>
+  <si>
+    <t>Use two pointers:
+slow moves 1 step at a time.
+fast moves 2 steps at a time.
+When fast reaches the end:
+slow will be at the middle node.
+fast moves twice as fast as slow, so by the time fast reaches the end, slow is halfway.</t>
+  </si>
+  <si>
+    <t>Time :  O(n) -&gt; 	Each pointer moves at most once through the array (linear scan).
+Space : O(1) -&gt; 	Uses only constant extra space (two indices).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Time  :  O(n) -&gt;	Each node is visited at most once by slow (fast moves faster but still O(n))
+Space :O(1) -&gt; 	Only two pointers used; no extra space needed</t>
+  </si>
+  <si>
+    <t>11. Container With Most Water</t>
+  </si>
+  <si>
+    <t>Two Pointers , Greedy</t>
+  </si>
+  <si>
+    <t>Time : O(n)  -&gt; Each pointer moves at most n steps → linear scan
+Space : O(1)  -&gt; 	Constant extra space, only pointers and maxArea variable</t>
+  </si>
+  <si>
+    <t>Use Left and Right Pointers
+Move Left if left &lt; right
+Move Right if left &gt; right 
+This make the highest length avaialble for calculation
+Use the Min Length &amp; Width to find the area.</t>
+  </si>
+  <si>
+    <t>26. Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>27. Remove Element</t>
+  </si>
+  <si>
+    <t>Array is Sorted
+Use Left and Right Pointers
+if sum &lt; target -&gt; l eft++
+if sum &gt; target -&gt; right--
+While (left &lt; right)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Direction , Slow-Fast </t>
+  </si>
+  <si>
+    <t>Time :  O(n )   -&gt; Each element is visited once by fast
+Space	:  O(1)    -&gt; 	Done in-place using only two pointers</t>
+  </si>
+  <si>
+    <t>**Find the next  Unique Element And Fill it in Duplicate Element Position**
+Since array is sorted:
+Duplicates are next to each other.
+Use two pointers:
+slow → points to the position of the last unique element.
+fast → scans ahead to find the next unique element.
+Slow ++  is the position to fill the unique element</t>
+  </si>
+  <si>
+    <t>Find the next index with given value
+slow → slow pointer (tracks where next valid element should go)
+fast → fast pointer (scans all elements to find the valid element)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +257,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,12 +290,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -535,15 +632,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4715199-24B6-5649-B03C-B91516D35629}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64" customWidth="1"/>
+    <col min="9" max="9" width="87.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,13 +668,153 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/" xr:uid="{25C2DC53-146E-4341-AC06-A76CBA6102CA}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://leetcode.com/problems/middle-of-the-linked-list/" xr:uid="{5271FDF4-F3F8-EB4C-A01F-644380506CE3}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{821049EF-227E-2349-8DC4-36B246DBB68E}"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/" xr:uid="{991AFCD8-B66E-9640-8C34-F2238BD9B5B5}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/remove-element/" xr:uid="{7D04DB29-6556-864B-9151-20BB9FF1514F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -579,14 +824,14 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -630,7 +875,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64F8FB4-7BC0-8A45-8DD5-AA89612912D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC388F4-89F9-DF48-845A-84603DCF9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33580" windowHeight="21580" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
   </bookViews>
   <sheets>
     <sheet name="Two Pointers" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>No</t>
   </si>
@@ -239,6 +239,30 @@
     <t>Find the next index with given value
 slow → slow pointer (tracks where next valid element should go)
 fast → fast pointer (scans all elements to find the valid element)</t>
+  </si>
+  <si>
+    <t>103. Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>ChatGPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time: O(n) → each node visited once.
+Space: O(n) → queue + output list.</t>
+  </si>
+  <si>
+    <t>[BFS]
+Use Level Order I + Level Order II
+Use a boolen to check leftToRight. Negate at end of each while loop
+for left to right , Add like Level Order 1 
+for right to left , Add like level order II (Adding at 0th element)
+Note : declare int queueSize = queue.size(); seperately (Dont add direcly in forloop)
+[DFS]
+Same As Level Order I
+level % 2 == 0 to decide leftToRight or RightToLeft</t>
   </si>
 </sst>
 </file>
@@ -634,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4715199-24B6-5649-B03C-B91516D35629}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,23 +896,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="41" customWidth="1"/>
     <col min="8" max="8" width="152.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,8 +938,11 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -939,8 +967,11 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -965,8 +996,11 @@
       <c r="H3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -991,8 +1025,11 @@
       <c r="H4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1017,8 +1054,11 @@
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="204" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1043,9 +1083,42 @@
       <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H2" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}"/>
@@ -1055,6 +1128,7 @@
     <hyperlink ref="C4" r:id="rId3" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{84AC22B6-BBF7-4440-BCBE-6D01B3CE21C2}"/>
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{885BC899-9078-5A4A-8C38-654A4853EF97}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/" xr:uid="{02ECB573-253E-F84A-9332-7586D105FB95}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/" xr:uid="{8E0A4DEF-CD77-5149-BF5F-9E8D083BA354}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC388F4-89F9-DF48-845A-84603DCF9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A731E-E764-F842-8128-35E5ABFFF50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
   <si>
     <t>No</t>
   </si>
@@ -264,12 +264,151 @@
 Same As Level Order I
 level % 2 == 0 to decide leftToRight or RightToLeft</t>
   </si>
+  <si>
+    <t>700. Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Binary Search Tree , Recursion</t>
+  </si>
+  <si>
+    <t>Time: O(h) → where h is the height of the tree
+Best case (balanced BST): O(log n)
+Worst case (skewed BST): O(n)
+Space:
+Recursive → O(h) (recursion stack)
+Iterative → O(1)</t>
+  </si>
+  <si>
+    <t>701. Insert into a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>“Keep walking down the BST — left if val &lt; node, right if val &gt; node — stop when found or null.”
+Recursive: call down until found.
+Iterative: use a loop until node == null.</t>
+  </si>
+  <si>
+    <t>Time: O(h),
+ Space: O(h) or O(1)</t>
+  </si>
+  <si>
+    <t>ChatGPT
+“Search where it should exist, and create a new node at the null spot.”
+Recursive: assign root.left/right = insertIntoBST(...)
+Iterative: loop until null child, then attach new node.
+Recursion in BST = “Go down until null → create node → reattach while going up.”
+Old nodes stay intact; only child references are re-set to connect the chain.
+during the bubble back, each recursive call reassigns root.left or root.right —
+but it doesn’t recreate the nodes; it just re-links existing ones.</t>
+  </si>
+  <si>
+    <t>Iterative : use  while (true) with if , else &amp; break
+Recursion : root.left = rec() , root.right =rec()  assign when root == null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Node not found → just return root.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Node with one child </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(or no child) → replace it with its child (or null).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Node with two children</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> →
+Find the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inorder successor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (smallest node in right subtree). 
+(OR)
+Find the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inorder Predecessor (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>largest node in the left subtree)
+Copy successor’s value into current node.
+Delete the successor from right subtree.</t>
+    </r>
+  </si>
+  <si>
+    <t>450. Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>Recursive: Time O(h), Space O(h)
+Iterative: Time O(h), Space O(1))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -290,6 +429,19 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -314,13 +466,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -896,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,8 +1064,10 @@
     <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="41" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="45.5" customWidth="1"/>
     <col min="8" max="8" width="152.6640625" customWidth="1"/>
+    <col min="9" max="9" width="96.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1116,9 +1273,89 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="H8" s="2"/>
+    <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H2" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}"/>
@@ -1129,6 +1366,9 @@
     <hyperlink ref="C5" r:id="rId4" display="https://leetcode.com/problems/binary-tree-level-order-traversal/" xr:uid="{885BC899-9078-5A4A-8C38-654A4853EF97}"/>
     <hyperlink ref="C6" r:id="rId5" display="https://leetcode.com/problems/binary-tree-level-order-traversal-ii/" xr:uid="{02ECB573-253E-F84A-9332-7586D105FB95}"/>
     <hyperlink ref="C7" r:id="rId6" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/" xr:uid="{8E0A4DEF-CD77-5149-BF5F-9E8D083BA354}"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/search-in-a-binary-search-tree/" xr:uid="{0DA1C807-BDD9-7044-8FB9-0CB01F30BBB6}"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{DDCE47E9-8C35-8C45-8FE0-8A7D4F5C7242}"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{86359CE8-B69D-8E4C-B394-3DB24562D34A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A731E-E764-F842-8128-35E5ABFFF50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD4FF4-25E1-304A-92CC-8A8131DD259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -244,9 +244,6 @@
     <t>103. Binary Tree Zigzag Level Order Traversal</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>ChatGPT</t>
   </si>
   <si>
@@ -303,6 +300,13 @@
   <si>
     <t>Iterative : use  while (true) with if , else &amp; break
 Recursion : root.left = rec() , root.right =rec()  assign when root == null</t>
+  </si>
+  <si>
+    <t>450. Delete Node in a BST</t>
+  </si>
+  <si>
+    <t>Recursive: Time O(h), Space O(h)
+Iterative: Time O(h), Space O(1))</t>
   </si>
   <si>
     <r>
@@ -391,24 +395,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>largest node in the left subtree)
-Copy successor’s value into current node.
+      <t xml:space="preserve">largest node in the left subtree)
+Copy </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>successor’s value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (not the successor node) into current node.
 Delete the successor from right subtree.</t>
     </r>
   </si>
   <si>
-    <t>450. Delete Node in a BST</t>
-  </si>
-  <si>
-    <t>Recursive: Time O(h), Space O(h)
-Iterative: Time O(h), Space O(1))</t>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the Leet Code </t>
+  </si>
+  <si>
+    <t>Add Notes</t>
+  </si>
+  <si>
+    <t>Recursive: Use min/max bounds
+Time: O(n) → each node visited once.
+Space: O(h) → recursion stack height.
+Iterative: Inorder must be strictly increasing 
+Time: O(n) → each node visited once.
+Space: O(h) → stack depth for traversal.</t>
+  </si>
+  <si>
+    <t>Iterative: Use In Order Traversal with Stack
+Recursion : recursion Of Left SubTree &amp;&amp; Recursion of Right Sub Tree should be true</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +480,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1051,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1125,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1154,7 +1197,7 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1183,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -1212,7 +1255,7 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="204" x14ac:dyDescent="0.2">
@@ -1241,7 +1284,7 @@
         <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="170" x14ac:dyDescent="0.2">
@@ -1264,13 +1307,13 @@
         <v>19</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1278,10 +1321,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -1290,16 +1333,16 @@
         <v>7</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
@@ -1307,10 +1350,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -1319,16 +1362,16 @@
         <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1336,10 +1379,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -1348,13 +1391,42 @@
         <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>62</v>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1369,6 +1441,7 @@
     <hyperlink ref="C8" r:id="rId7" display="https://leetcode.com/problems/search-in-a-binary-search-tree/" xr:uid="{0DA1C807-BDD9-7044-8FB9-0CB01F30BBB6}"/>
     <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{DDCE47E9-8C35-8C45-8FE0-8A7D4F5C7242}"/>
     <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{86359CE8-B69D-8E4C-B394-3DB24562D34A}"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{F31F689F-DDC1-414A-87BD-C31A6B4DED4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BD4FF4-25E1-304A-92CC-8A8131DD259B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E73F99-000B-724B-A1EF-D74CBB47E793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Two Pointers" sheetId="2" r:id="rId1"/>
     <sheet name="Sliding Window" sheetId="3" r:id="rId2"/>
     <sheet name="Trees" sheetId="1" r:id="rId3"/>
+    <sheet name="Linked List" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Trees!$A$1:$H$2</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
   <si>
     <t>No</t>
   </si>
@@ -309,6 +310,23 @@
 Iterative: Time O(h), Space O(1))</t>
   </si>
   <si>
+    <t>98. Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the Leet Code </t>
+  </si>
+  <si>
+    <t>Add Notes</t>
+  </si>
+  <si>
+    <t>Recursive: Use min/max bounds
+Time: O(n) → each node visited once.
+Space: O(h) → recursion stack height.
+Iterative: Inorder must be strictly increasing 
+Time: O(n) → each node visited once.
+Space: O(h) → stack depth for traversal.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Node not found → just return root.
 </t>
@@ -416,29 +434,148 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (not the successor node) into current node.
-Delete the successor from right subtree.</t>
-    </r>
-  </si>
-  <si>
-    <t>98. Validate Binary Search Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the Leet Code </t>
-  </si>
-  <si>
-    <t>Add Notes</t>
-  </si>
-  <si>
-    <t>Recursive: Use min/max bounds
-Time: O(n) → each node visited once.
-Space: O(h) → recursion stack height.
-Iterative: Inorder must be strictly increasing 
-Time: O(n) → each node visited once.
-Space: O(h) → stack depth for traversal.</t>
-  </si>
-  <si>
-    <t>Iterative: Use In Order Traversal with Stack
-Recursion : recursion Of Left SubTree &amp;&amp; Recursion of Right Sub Tree should be true</t>
+Delete the successor from right subtree.
+Recursion : Not Tried Yet</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Iterative: Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In Order Traversal with Stack (Not Tried Yet)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Recursion (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pre Order Traversal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) : 
+Validate the lower , upper bound  
+recursion Of Left SubTree &amp;&amp; Recursion of Right Sub Tree should be true</t>
+    </r>
+  </si>
+  <si>
+    <t>235. Lowest Common Ancestor of a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Iterative :
+Time: O(h) → visit nodes along one path
+Space: O(1) → no recursion stack</t>
+  </si>
+  <si>
+    <t>Key :
+ if p.val &amp; q.val does not move towards same side (left or right of root) then the root is the ancestor
+Identiy the pace where the SPLIT happen (one move to left &amp; one move to right
+Iterative : 
+move the root left if both p,q &lt; root . Move to right if both &gt; root. If this  doesnot satisfy then return root.</t>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">create dummy node. create tail node from dummy and use it for add the nodes and start merging nodes from both the lists. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sometimes either of the lists may still be pending. Merge them at the end</t>
+    </r>
+  </si>
+  <si>
+    <t>Time	  -&gt;  O(n + m)
+Space    -&gt; O(1)</t>
+  </si>
+  <si>
+    <t>112. Path Sum</t>
+  </si>
+  <si>
+    <t>Binary Tree , DFS , BFS</t>
+  </si>
+  <si>
+    <t>Recursion
+Time: O(n) → visit each node once.
+Space: O(h) → recursion depth (height of tree).</t>
+  </si>
+  <si>
+    <r>
+      <t>How wil you know if its a leaf ? simple  node.left and node.right == null
+Recursion: [DFS]
+Recurse Left || right .While recursion subtract the target with current node val.. So that we can check the leaf val  = remaining val 
+Go till the leaf . Check if its leaf (no left &amp; right nodes) &amp; then check if the leaf value = target sum.
+Iterative : [BFS]
+Use 2 Queues , 1 for adding the sum
+At Level , While check if left or right exist and adding to the queue, add the node to the queue and  (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add the current sum + next node value and put in queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) ,
+So that at last level it reaches the target sum</t>
+    </r>
+  </si>
+  <si>
+    <t>113. Path Sum II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree </t>
   </si>
 </sst>
 </file>
@@ -509,13 +646,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1094,16 +1232,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
@@ -1139,7 +1277,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1367,14 +1505,14 @@
       <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="5" t="s">
         <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="170" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1397,10 +1535,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="119" x14ac:dyDescent="0.2">
@@ -1408,10 +1546,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -1423,10 +1561,79 @@
         <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1442,6 +1649,89 @@
     <hyperlink ref="C9" r:id="rId8" display="https://leetcode.com/problems/insert-into-a-binary-search-tree/" xr:uid="{DDCE47E9-8C35-8C45-8FE0-8A7D4F5C7242}"/>
     <hyperlink ref="C10" r:id="rId9" display="https://leetcode.com/problems/delete-node-in-a-bst/" xr:uid="{86359CE8-B69D-8E4C-B394-3DB24562D34A}"/>
     <hyperlink ref="C11" r:id="rId10" display="https://leetcode.com/problems/validate-binary-search-tree/" xr:uid="{F31F689F-DDC1-414A-87BD-C31A6B4DED4B}"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/" xr:uid="{1E73118E-81F0-5444-9676-69EA2924B6DC}"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://leetcode.com/problems/path-sum/" xr:uid="{2469B242-E8FC-E942-BCA7-3666660A96A2}"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/path-sum-ii/" xr:uid="{0792B132-FFAC-D344-8EBF-5956B5F6184E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F386294-6818-FA4B-A19B-80EE6778471E}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="111.33203125" customWidth="1"/>
+    <col min="9" max="9" width="69.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://leetcode.com/problems/merge-two-sorted-lists/" xr:uid="{07CC7A2A-48E7-2047-BDB1-413CF36461BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
+++ b/src/main/java/com/awinas/learning/leetcode/DSA_NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a0m0rtj/AwinasKannan/Official/LearningRepos/Java-Features/src/main/java/com/awinas/learning/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E73F99-000B-724B-A1EF-D74CBB47E793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0470E1-E491-8749-BD3B-69C10F1B3887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{D5756C59-A993-0448-8F9C-A2EBCDD5D59F}"/>
   </bookViews>
   <sheets>
     <sheet name="Two Pointers" sheetId="2" r:id="rId1"/>
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4715199-24B6-5649-B03C-B91516D35629}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1234,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6677C62-5A69-E943-80EE-A15BF90E5418}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
